--- a/Code/Results/Cases/Case_1_64/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_64/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.013947023756316</v>
+        <v>0.9937165061569999</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.05210038588383981</v>
+        <v>0.02883949465213931</v>
       </c>
       <c r="E2">
-        <v>0.1309521476223665</v>
+        <v>0.3059238889258449</v>
       </c>
       <c r="F2">
-        <v>0.5462825965319595</v>
+        <v>0.7565922461509373</v>
       </c>
       <c r="G2">
-        <v>0.0007970297069867422</v>
+        <v>0.002430152510010241</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.303720581787474</v>
+        <v>0.3911746362539077</v>
       </c>
       <c r="L2">
-        <v>0.2926341202515914</v>
+        <v>0.1396917977880463</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9066828277585494</v>
+        <v>1.837630429286745</v>
       </c>
       <c r="O2">
-        <v>1.594622594381264</v>
+        <v>2.607734100147212</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9026509226438861</v>
+        <v>0.9679792446818567</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.04715923157804269</v>
+        <v>0.02712728148494392</v>
       </c>
       <c r="E3">
-        <v>0.1335477381883159</v>
+        <v>0.3083394191694939</v>
       </c>
       <c r="F3">
-        <v>0.5093830803549793</v>
+        <v>0.7524161873701729</v>
       </c>
       <c r="G3">
-        <v>0.0008006939586977513</v>
+        <v>0.002432617965832573</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.144513066534813</v>
+        <v>0.3415326572455228</v>
       </c>
       <c r="L3">
-        <v>0.2542526239297729</v>
+        <v>0.1291995543510325</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9520408460019897</v>
+        <v>1.856865533837679</v>
       </c>
       <c r="O3">
-        <v>1.51945412454927</v>
+        <v>2.607272311714127</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8351091186871429</v>
+        <v>0.9526466160103269</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.04411310717785</v>
+        <v>0.02606572378602579</v>
       </c>
       <c r="E4">
-        <v>0.1353244941739167</v>
+        <v>0.3099375296855698</v>
       </c>
       <c r="F4">
-        <v>0.4876751053558195</v>
+        <v>0.7503063015120475</v>
       </c>
       <c r="G4">
-        <v>0.0008030211993591095</v>
+        <v>0.002434213931948306</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.046715939852845</v>
+        <v>0.3109323911908746</v>
       </c>
       <c r="L4">
-        <v>0.2308365310158962</v>
+        <v>0.1228123562085131</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9810930680070969</v>
+        <v>1.869284042096816</v>
       </c>
       <c r="O4">
-        <v>1.476336456071238</v>
+        <v>2.608475284484712</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8077700359690994</v>
+        <v>0.9465171930580993</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.04286850974878575</v>
+        <v>0.02563057261146184</v>
       </c>
       <c r="E5">
-        <v>0.1360936107444193</v>
+        <v>0.3106177149966793</v>
       </c>
       <c r="F5">
-        <v>0.4790539079993934</v>
+        <v>0.7495607584654564</v>
       </c>
       <c r="G5">
-        <v>0.0008039893429359178</v>
+        <v>0.002434885023632404</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.006839597924113</v>
+        <v>0.2984329840475368</v>
       </c>
       <c r="L5">
-        <v>0.2213270788096509</v>
+        <v>0.1202234666762791</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9932276835299658</v>
+        <v>1.874497603653925</v>
       </c>
       <c r="O5">
-        <v>1.459489286510177</v>
+        <v>2.609339317128416</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8032411354126339</v>
+        <v>0.9455065945334127</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.04266164173694165</v>
+        <v>0.02555816219761908</v>
       </c>
       <c r="E6">
-        <v>0.1362240170907185</v>
+        <v>0.3107324082750331</v>
       </c>
       <c r="F6">
-        <v>0.477635569628049</v>
+        <v>0.749443863148926</v>
       </c>
       <c r="G6">
-        <v>0.0008041513057804444</v>
+        <v>0.002434997711255324</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.000216410899213</v>
+        <v>0.2963556998396086</v>
       </c>
       <c r="L6">
-        <v>0.2197498809690046</v>
+        <v>0.1197944286137869</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9952602904723583</v>
+        <v>1.875372547908822</v>
       </c>
       <c r="O6">
-        <v>1.456734404428772</v>
+        <v>2.609505366891995</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8347396855290299</v>
+        <v>0.952563470969352</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04409633562674031</v>
+        <v>0.02605986551576933</v>
       </c>
       <c r="E7">
-        <v>0.1353346854805189</v>
+        <v>0.3099465856714012</v>
       </c>
       <c r="F7">
-        <v>0.4875579433499908</v>
+        <v>0.7502957842113176</v>
       </c>
       <c r="G7">
-        <v>0.0008030341756500046</v>
+        <v>0.002434222898545008</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.04617826343312</v>
+        <v>0.3107639386710446</v>
       </c>
       <c r="L7">
-        <v>0.2307081568532681</v>
+        <v>0.1227773849476961</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9812555314330453</v>
+        <v>1.869353734832313</v>
       </c>
       <c r="O7">
-        <v>1.47610637052324</v>
+        <v>2.608485423564844</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9753979388020468</v>
+        <v>0.9847450218603626</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.05039909001153831</v>
+        <v>0.02825126294955993</v>
       </c>
       <c r="E8">
-        <v>0.1318085276302146</v>
+        <v>0.3067329228366305</v>
       </c>
       <c r="F8">
-        <v>0.5333544364641014</v>
+        <v>0.7550580814646466</v>
       </c>
       <c r="G8">
-        <v>0.0007982772771157044</v>
+        <v>0.002430985582394892</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.248827045196748</v>
+        <v>0.374083308833832</v>
       </c>
       <c r="L8">
-        <v>0.2793658873751212</v>
+        <v>0.1360626935527733</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9220686266550994</v>
+        <v>1.844136496585486</v>
       </c>
       <c r="O8">
-        <v>1.568049782155356</v>
+        <v>2.607266351533013</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.258259444997208</v>
+        <v>1.051564598015176</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.06267184025286809</v>
+        <v>0.03246653854565551</v>
       </c>
       <c r="E9">
-        <v>0.1263911012897569</v>
+        <v>0.3013416486353524</v>
       </c>
       <c r="F9">
-        <v>0.6313338142650835</v>
+        <v>0.7680012245628376</v>
       </c>
       <c r="G9">
-        <v>0.0007895478296021645</v>
+        <v>0.002425286383151063</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.646492421421385</v>
+        <v>0.4972806117490904</v>
       </c>
       <c r="L9">
-        <v>0.3762186951556004</v>
+        <v>0.1625494250464499</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8158568374153821</v>
+        <v>1.799509062023088</v>
       </c>
       <c r="O9">
-        <v>1.774343228399687</v>
+        <v>2.616673570146446</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.471451445352955</v>
+        <v>1.102900580002682</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.07165140090602051</v>
+        <v>0.03551280235468113</v>
       </c>
       <c r="E10">
-        <v>0.1233889488056388</v>
+        <v>0.297933838549957</v>
       </c>
       <c r="F10">
-        <v>0.7092581833938141</v>
+        <v>0.7797104259592231</v>
       </c>
       <c r="G10">
-        <v>0.0007834771054622769</v>
+        <v>0.002421491030728275</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.939759165212308</v>
+        <v>0.5871821032734488</v>
       </c>
       <c r="L10">
-        <v>0.4486148268072867</v>
+        <v>0.1822723227745513</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7442863100636635</v>
+        <v>1.769658930352516</v>
       </c>
       <c r="O10">
-        <v>1.944565631717666</v>
+        <v>2.63078683809573</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.569862800446344</v>
+        <v>1.126738159753302</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.07573211986910877</v>
+        <v>0.03688748805136299</v>
       </c>
       <c r="E11">
-        <v>0.1222507894882376</v>
+        <v>0.2965032225593216</v>
       </c>
       <c r="F11">
-        <v>0.7462245354237353</v>
+        <v>0.7855156264986078</v>
       </c>
       <c r="G11">
-        <v>0.0007807846088222933</v>
+        <v>0.002419848683946846</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.07363860727358</v>
+        <v>0.6279442576193048</v>
       </c>
       <c r="L11">
-        <v>0.481905194216921</v>
+        <v>0.1913016768281608</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7132383388739911</v>
+        <v>1.75671660395042</v>
       </c>
       <c r="O11">
-        <v>2.026724092797423</v>
+        <v>2.638773524871283</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.607356714587183</v>
+        <v>1.135834068209675</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.07727710438897617</v>
+        <v>0.03740643577150848</v>
       </c>
       <c r="E12">
-        <v>0.1218538685161015</v>
+        <v>0.2959786533819226</v>
       </c>
       <c r="F12">
-        <v>0.7604612117636833</v>
+        <v>0.7877827386694776</v>
       </c>
       <c r="G12">
-        <v>0.0007797745163994258</v>
+        <v>0.002419238811902006</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.124422706639393</v>
+        <v>0.6433599869158968</v>
       </c>
       <c r="L12">
-        <v>0.4945703370836867</v>
+        <v>0.1947290307488601</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7017082022864496</v>
+        <v>1.75190722633387</v>
       </c>
       <c r="O12">
-        <v>2.058574218977043</v>
+        <v>2.642023228633121</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.599271234991392</v>
+        <v>1.133872035545266</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0769443724841139</v>
+        <v>0.03729474333592719</v>
       </c>
       <c r="E13">
-        <v>0.1219378146078132</v>
+        <v>0.2960908653369465</v>
       </c>
       <c r="F13">
-        <v>0.7573841559415939</v>
+        <v>0.7872914154981743</v>
       </c>
       <c r="G13">
-        <v>0.0007799916427303115</v>
+        <v>0.002419369623685671</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.113481258416215</v>
+        <v>0.6400408346658253</v>
       </c>
       <c r="L13">
-        <v>0.4918399321089453</v>
+        <v>0.1939905287360233</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7041811597067615</v>
+        <v>1.75293893705073</v>
       </c>
       <c r="O13">
-        <v>2.051680890960171</v>
+        <v>2.641313324740821</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.57294275230899</v>
+        <v>1.127485103203412</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0758592308083692</v>
+        <v>0.03693021471261204</v>
       </c>
       <c r="E14">
-        <v>0.1222174435942769</v>
+        <v>0.2964597218939655</v>
       </c>
       <c r="F14">
-        <v>0.7473908994998055</v>
+        <v>0.7857007642543294</v>
       </c>
       <c r="G14">
-        <v>0.0007807013201855695</v>
+        <v>0.002419798268158321</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.077814789975093</v>
+        <v>0.629212923922978</v>
       </c>
       <c r="L14">
-        <v>0.4829459399867915</v>
+        <v>0.1915834849078948</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7122851377412956</v>
+        <v>1.756319097445187</v>
       </c>
       <c r="O14">
-        <v>2.029329266845394</v>
+        <v>2.639036363897191</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.556846128484921</v>
+        <v>1.123581909775709</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.07519452096606472</v>
+        <v>0.03670671927152824</v>
       </c>
       <c r="E15">
-        <v>0.1223932036127753</v>
+        <v>0.2966878929760011</v>
       </c>
       <c r="F15">
-        <v>0.7413013952396597</v>
+        <v>0.7847354048366242</v>
       </c>
       <c r="G15">
-        <v>0.0007811372414703863</v>
+        <v>0.002420062392928246</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.055979953218781</v>
+        <v>0.6225778894997518</v>
       </c>
       <c r="L15">
-        <v>0.4775060015125376</v>
+        <v>0.1901101570849022</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7172789340931699</v>
+        <v>1.758401473946798</v>
       </c>
       <c r="O15">
-        <v>2.015736256277279</v>
+        <v>2.637671004527476</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.46505065147457</v>
+        <v>1.101352442324156</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.07138465830126961</v>
+        <v>0.03542273855929068</v>
       </c>
       <c r="E16">
-        <v>0.1234680229265201</v>
+        <v>0.298029737357334</v>
       </c>
       <c r="F16">
-        <v>0.7068745743249991</v>
+        <v>0.7793406721929159</v>
       </c>
       <c r="G16">
-        <v>0.0007836544200672652</v>
+        <v>0.002421600051256037</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.931020908188742</v>
+        <v>0.584515436737604</v>
       </c>
       <c r="L16">
-        <v>0.4464470332326869</v>
+        <v>0.1816833772817148</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7463465849176805</v>
+        <v>1.770517557127356</v>
       </c>
       <c r="O16">
-        <v>1.939296404453529</v>
+        <v>2.630296416241407</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.409118460054316</v>
+        <v>1.087839107771657</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.06904657957613125</v>
+        <v>0.03463220481263818</v>
       </c>
       <c r="E17">
-        <v>0.1241866074571298</v>
+        <v>0.2988835326704109</v>
       </c>
       <c r="F17">
-        <v>0.6861574864443156</v>
+        <v>0.776153754240994</v>
       </c>
       <c r="G17">
-        <v>0.0007852160228170035</v>
+        <v>0.00242256487507068</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.854496361796691</v>
+        <v>0.5611304297209472</v>
       </c>
       <c r="L17">
-        <v>0.4274899492065458</v>
+        <v>0.1765284227300157</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7645722228290293</v>
+        <v>1.778113478175429</v>
       </c>
       <c r="O17">
-        <v>1.893653712688803</v>
+        <v>2.626173603787862</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.377080858935216</v>
+        <v>1.080112239310893</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.06770137090276762</v>
+        <v>0.03417646967964316</v>
       </c>
       <c r="E18">
-        <v>0.1246212492667063</v>
+        <v>0.2993858733442973</v>
       </c>
       <c r="F18">
-        <v>0.674383185936577</v>
+        <v>0.7743657749709314</v>
       </c>
       <c r="G18">
-        <v>0.000786120747880148</v>
+        <v>0.002423127742566948</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.81052456243782</v>
+        <v>0.5476673742026321</v>
       </c>
       <c r="L18">
-        <v>0.4166194616345393</v>
+        <v>0.1735688298654452</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7751966063177249</v>
+        <v>1.782542372146404</v>
       </c>
       <c r="O18">
-        <v>1.867842050938577</v>
+        <v>2.623949713144441</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.366255689571688</v>
+        <v>1.077503910538951</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.06724582758653241</v>
+        <v>0.03402198750725915</v>
       </c>
       <c r="E19">
-        <v>0.1247720350733026</v>
+        <v>0.299557892016697</v>
       </c>
       <c r="F19">
-        <v>0.6704203458537137</v>
+        <v>0.7737681340804983</v>
       </c>
       <c r="G19">
-        <v>0.0007864282071669476</v>
+        <v>0.002423319683122333</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.795643308818711</v>
+        <v>0.5431068683436706</v>
       </c>
       <c r="L19">
-        <v>0.4129443716404779</v>
+        <v>0.1725676934056111</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7788178465342737</v>
+        <v>1.784052209538529</v>
       </c>
       <c r="O19">
-        <v>1.859176635062283</v>
+        <v>2.623222063463459</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.415058604579997</v>
+        <v>1.089272905274157</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.0692955121391563</v>
+        <v>0.03471646639195569</v>
       </c>
       <c r="E20">
-        <v>0.1241078956552339</v>
+        <v>0.2987914795053754</v>
       </c>
       <c r="F20">
-        <v>0.688348058012167</v>
+        <v>0.7764883445411925</v>
       </c>
       <c r="G20">
-        <v>0.0007850491145331924</v>
+        <v>0.002422461347851623</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.86263793613432</v>
+        <v>0.5636211144435777</v>
       </c>
       <c r="L20">
-        <v>0.4295044823453225</v>
+        <v>0.1770766182729631</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7626173600785413</v>
+        <v>1.777298677439787</v>
       </c>
       <c r="O20">
-        <v>1.898466416927732</v>
+        <v>2.626597224075113</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.580669703069731</v>
+        <v>1.129359228140373</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.07617796875288718</v>
+        <v>0.03703732964712003</v>
       </c>
       <c r="E21">
-        <v>0.1221343737919547</v>
+        <v>0.2963509138919616</v>
       </c>
       <c r="F21">
-        <v>0.7503195268465106</v>
+        <v>0.7861661097759765</v>
       </c>
       <c r="G21">
-        <v>0.0007804926166315411</v>
+        <v>0.002419672038439088</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.088288379065631</v>
+        <v>0.6323938923344485</v>
       </c>
       <c r="L21">
-        <v>0.4855566630312325</v>
+        <v>0.1922902721463515</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7098985581793084</v>
+        <v>1.75532377596684</v>
       </c>
       <c r="O21">
-        <v>2.035873944894178</v>
+        <v>2.639699046938887</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.69024453398282</v>
+        <v>1.155960670433785</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.08067448497765639</v>
+        <v>0.0385447182608516</v>
       </c>
       <c r="E22">
-        <v>0.121043866656743</v>
+        <v>0.2948559545794396</v>
       </c>
       <c r="F22">
-        <v>0.7922208818552434</v>
+        <v>0.7928921499170656</v>
       </c>
       <c r="G22">
-        <v>0.0007775698170775913</v>
+        <v>0.002417919269228745</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.236280242345089</v>
+        <v>0.6772239084157832</v>
       </c>
       <c r="L22">
-        <v>0.5225366059602266</v>
+        <v>0.2022806324489039</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6767723276278177</v>
+        <v>1.741495851183423</v>
       </c>
       <c r="O22">
-        <v>2.130012813235282</v>
+        <v>2.649575202362314</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.631632207968579</v>
+        <v>1.141726313095944</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.07827464897091119</v>
+        <v>0.03774106713490966</v>
       </c>
       <c r="E23">
-        <v>0.1216071857196059</v>
+        <v>0.2956446927801348</v>
       </c>
       <c r="F23">
-        <v>0.7697223155857387</v>
+        <v>0.7892656445446278</v>
       </c>
       <c r="G23">
-        <v>0.0007791248778094516</v>
+        <v>0.002418848349540759</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.157240246530847</v>
+        <v>0.6533082110464363</v>
       </c>
       <c r="L23">
-        <v>0.5027653933512823</v>
+        <v>0.1969442915197419</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6943273975747875</v>
+        <v>1.748827201329661</v>
       </c>
       <c r="O23">
-        <v>2.079351777191278</v>
+        <v>2.644183920945864</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.412372697606401</v>
+        <v>1.088624554159253</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.06918297291472442</v>
+        <v>0.0346783756136233</v>
       </c>
       <c r="E24">
-        <v>0.1241434143387909</v>
+        <v>0.2988330609734469</v>
       </c>
       <c r="F24">
-        <v>0.6873572777793839</v>
+        <v>0.7763369385153993</v>
       </c>
       <c r="G24">
-        <v>0.0007851245521488493</v>
+        <v>0.002422508127004007</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.858957059599447</v>
+        <v>0.5624951340902555</v>
       </c>
       <c r="L24">
-        <v>0.4285936246579212</v>
+        <v>0.1768287664172448</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.763500698825476</v>
+        <v>1.777666856045674</v>
       </c>
       <c r="O24">
-        <v>1.896289261754077</v>
+        <v>2.626405249413978</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.180876898111734</v>
+        <v>1.033092745655381</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.05935947261451702</v>
+        <v>0.03133504879142635</v>
       </c>
       <c r="E25">
-        <v>0.1276898337522443</v>
+        <v>0.3027028442699411</v>
       </c>
       <c r="F25">
-        <v>0.6038576641765658</v>
+        <v>0.7641136249657663</v>
       </c>
       <c r="G25">
-        <v>0.0007918474972377822</v>
+        <v>0.002426759074490533</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.538791527240676</v>
+        <v>0.4640584914843373</v>
       </c>
       <c r="L25">
-        <v>0.3498276620063763</v>
+        <v>0.1553377387450467</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8434896772634313</v>
+        <v>1.811065887261281</v>
       </c>
       <c r="O25">
-        <v>1.715473008380798</v>
+        <v>2.612864642959011</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_64/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_64/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9937165061569999</v>
+        <v>1.013947023756145</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02883949465213931</v>
+        <v>0.05210038588364085</v>
       </c>
       <c r="E2">
-        <v>0.3059238889258449</v>
+        <v>0.1309521476223683</v>
       </c>
       <c r="F2">
-        <v>0.7565922461509373</v>
+        <v>0.5462825965319382</v>
       </c>
       <c r="G2">
-        <v>0.002430152510010241</v>
+        <v>0.0007970297069297261</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3911746362539077</v>
+        <v>1.303720581787502</v>
       </c>
       <c r="L2">
-        <v>0.1396917977880463</v>
+        <v>0.2926341202515488</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.837630429286745</v>
+        <v>0.9066828277585373</v>
       </c>
       <c r="O2">
-        <v>2.607734100147212</v>
+        <v>1.594622594381235</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9679792446818567</v>
+        <v>0.9026509226439998</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02712728148494392</v>
+        <v>0.04715923157799295</v>
       </c>
       <c r="E3">
-        <v>0.3083394191694939</v>
+        <v>0.1335477381883159</v>
       </c>
       <c r="F3">
-        <v>0.7524161873701729</v>
+        <v>0.5093830803549864</v>
       </c>
       <c r="G3">
-        <v>0.002432617965832573</v>
+        <v>0.0008006939586769347</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3415326572455228</v>
+        <v>1.144513066534643</v>
       </c>
       <c r="L3">
-        <v>0.1291995543510325</v>
+        <v>0.2542526239297445</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.856865533837679</v>
+        <v>0.952040846001984</v>
       </c>
       <c r="O3">
-        <v>2.607272311714127</v>
+        <v>1.519454124549185</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9526466160103269</v>
+        <v>0.8351091186870576</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02606572378602579</v>
+        <v>0.04411310717777184</v>
       </c>
       <c r="E4">
-        <v>0.3099375296855698</v>
+        <v>0.135324494173922</v>
       </c>
       <c r="F4">
-        <v>0.7503063015120475</v>
+        <v>0.4876751053558337</v>
       </c>
       <c r="G4">
-        <v>0.002434213931948306</v>
+        <v>0.0008030211994383597</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3109323911908746</v>
+        <v>1.046715939852959</v>
       </c>
       <c r="L4">
-        <v>0.1228123562085131</v>
+        <v>0.2308365310157967</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.869284042096816</v>
+        <v>0.9810930680071002</v>
       </c>
       <c r="O4">
-        <v>2.608475284484712</v>
+        <v>1.476336456071238</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9465171930580993</v>
+        <v>0.8077700359691846</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02563057261146184</v>
+        <v>0.04286850974879286</v>
       </c>
       <c r="E5">
-        <v>0.3106177149966793</v>
+        <v>0.1360936107444246</v>
       </c>
       <c r="F5">
-        <v>0.7495607584654564</v>
+        <v>0.4790539079993934</v>
       </c>
       <c r="G5">
-        <v>0.002434885023632404</v>
+        <v>0.0008039893429543593</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2984329840475368</v>
+        <v>1.006839597924085</v>
       </c>
       <c r="L5">
-        <v>0.1202234666762791</v>
+        <v>0.2213270788095372</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.874497603653925</v>
+        <v>0.9932276835299659</v>
       </c>
       <c r="O5">
-        <v>2.609339317128416</v>
+        <v>1.45948928651012</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9455065945334127</v>
+        <v>0.8032411354125202</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02555816219761908</v>
+        <v>0.04266164173671427</v>
       </c>
       <c r="E6">
-        <v>0.3107324082750331</v>
+        <v>0.1362240170907008</v>
       </c>
       <c r="F6">
-        <v>0.749443863148926</v>
+        <v>0.4776355696280419</v>
       </c>
       <c r="G6">
-        <v>0.002434997711255324</v>
+        <v>0.0008041513058220822</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2963556998396086</v>
+        <v>1.000216410899213</v>
       </c>
       <c r="L6">
-        <v>0.1197944286137869</v>
+        <v>0.2197498809689904</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.875372547908822</v>
+        <v>0.9952602904723419</v>
       </c>
       <c r="O6">
-        <v>2.609505366891995</v>
+        <v>1.456734404428744</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.952563470969352</v>
+        <v>0.8347396855290015</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02605986551576933</v>
+        <v>0.04409633562676873</v>
       </c>
       <c r="E7">
-        <v>0.3099465856714012</v>
+        <v>0.1353346854805366</v>
       </c>
       <c r="F7">
-        <v>0.7502957842113176</v>
+        <v>0.4875579433499837</v>
       </c>
       <c r="G7">
-        <v>0.002434222898545008</v>
+        <v>0.0008030341755919412</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3107639386710446</v>
+        <v>1.046178263433006</v>
       </c>
       <c r="L7">
-        <v>0.1227773849476961</v>
+        <v>0.2307081568532539</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.869353734832313</v>
+        <v>0.9812555314330513</v>
       </c>
       <c r="O7">
-        <v>2.608485423564844</v>
+        <v>1.476106370523127</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9847450218603626</v>
+        <v>0.9753979388020184</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02825126294955993</v>
+        <v>0.05039909001120435</v>
       </c>
       <c r="E8">
-        <v>0.3067329228366305</v>
+        <v>0.1318085276302199</v>
       </c>
       <c r="F8">
-        <v>0.7550580814646466</v>
+        <v>0.5333544364641014</v>
       </c>
       <c r="G8">
-        <v>0.002430985582394892</v>
+        <v>0.0007982772771160797</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.374083308833832</v>
+        <v>1.248827045196776</v>
       </c>
       <c r="L8">
-        <v>0.1360626935527733</v>
+        <v>0.2793658873750644</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.844136496585486</v>
+        <v>0.9220686266551101</v>
       </c>
       <c r="O8">
-        <v>2.607266351533013</v>
+        <v>1.568049782155356</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.051564598015176</v>
+        <v>1.258259444997236</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03246653854565551</v>
+        <v>0.06267184025286099</v>
       </c>
       <c r="E9">
-        <v>0.3013416486353524</v>
+        <v>0.1263911012897783</v>
       </c>
       <c r="F9">
-        <v>0.7680012245628376</v>
+        <v>0.6313338142650693</v>
       </c>
       <c r="G9">
-        <v>0.002425286383151063</v>
+        <v>0.0007895478295773762</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4972806117490904</v>
+        <v>1.646492421421385</v>
       </c>
       <c r="L9">
-        <v>0.1625494250464499</v>
+        <v>0.3762186951555435</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.799509062023088</v>
+        <v>0.8158568374153775</v>
       </c>
       <c r="O9">
-        <v>2.616673570146446</v>
+        <v>1.77434322839963</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.102900580002682</v>
+        <v>1.471451445352869</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03551280235468113</v>
+        <v>0.07165140090572919</v>
       </c>
       <c r="E10">
-        <v>0.297933838549957</v>
+        <v>0.1233889488056281</v>
       </c>
       <c r="F10">
-        <v>0.7797104259592231</v>
+        <v>0.7092581833938283</v>
       </c>
       <c r="G10">
-        <v>0.002421491030728275</v>
+        <v>0.0007834771055188407</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5871821032734488</v>
+        <v>1.939759165212251</v>
       </c>
       <c r="L10">
-        <v>0.1822723227745513</v>
+        <v>0.4486148268072725</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.769658930352516</v>
+        <v>0.7442863100636414</v>
       </c>
       <c r="O10">
-        <v>2.63078683809573</v>
+        <v>1.94456563171758</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.126738159753302</v>
+        <v>1.569862800446174</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03688748805136299</v>
+        <v>0.07573211986905903</v>
       </c>
       <c r="E11">
-        <v>0.2965032225593216</v>
+        <v>0.1222507894882394</v>
       </c>
       <c r="F11">
-        <v>0.7855156264986078</v>
+        <v>0.7462245354237353</v>
       </c>
       <c r="G11">
-        <v>0.002419848683946846</v>
+        <v>0.0007807846088494821</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6279442576193048</v>
+        <v>2.073638607273466</v>
       </c>
       <c r="L11">
-        <v>0.1913016768281608</v>
+        <v>0.4819051942169352</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.75671660395042</v>
+        <v>0.713238338874044</v>
       </c>
       <c r="O11">
-        <v>2.638773524871283</v>
+        <v>2.026724092797423</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.135834068209675</v>
+        <v>1.607356714587212</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03740643577150848</v>
+        <v>0.07727710438897617</v>
       </c>
       <c r="E12">
-        <v>0.2959786533819226</v>
+        <v>0.1218538685160855</v>
       </c>
       <c r="F12">
-        <v>0.7877827386694776</v>
+        <v>0.7604612117636833</v>
       </c>
       <c r="G12">
-        <v>0.002419238811902006</v>
+        <v>0.0007797745163720257</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6433599869158968</v>
+        <v>2.12442270663945</v>
       </c>
       <c r="L12">
-        <v>0.1947290307488601</v>
+        <v>0.4945703370837293</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.75190722633387</v>
+        <v>0.701708202286454</v>
       </c>
       <c r="O12">
-        <v>2.642023228633121</v>
+        <v>2.058574218977071</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.133872035545266</v>
+        <v>1.599271234991335</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03729474333592719</v>
+        <v>0.07694437248417074</v>
       </c>
       <c r="E13">
-        <v>0.2960908653369465</v>
+        <v>0.1219378146078114</v>
       </c>
       <c r="F13">
-        <v>0.7872914154981743</v>
+        <v>0.7573841559415513</v>
       </c>
       <c r="G13">
-        <v>0.002419369623685671</v>
+        <v>0.0007799916427589185</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6400408346658253</v>
+        <v>2.113481258416215</v>
       </c>
       <c r="L13">
-        <v>0.1939905287360233</v>
+        <v>0.4918399321091158</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.75293893705073</v>
+        <v>0.7041811597067552</v>
       </c>
       <c r="O13">
-        <v>2.641313324740821</v>
+        <v>2.051680890960228</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.127485103203412</v>
+        <v>1.572942752309018</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03693021471261204</v>
+        <v>0.07585923080831236</v>
       </c>
       <c r="E14">
-        <v>0.2964597218939655</v>
+        <v>0.1222174435942804</v>
       </c>
       <c r="F14">
-        <v>0.7857007642543294</v>
+        <v>0.7473908994998197</v>
       </c>
       <c r="G14">
-        <v>0.002419798268158321</v>
+        <v>0.0007807013201292191</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.629212923922978</v>
+        <v>2.07781478997515</v>
       </c>
       <c r="L14">
-        <v>0.1915834849078948</v>
+        <v>0.4829459399868483</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.756319097445187</v>
+        <v>0.7122851377412327</v>
       </c>
       <c r="O14">
-        <v>2.639036363897191</v>
+        <v>2.029329266845423</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.123581909775709</v>
+        <v>1.556846128484921</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03670671927152824</v>
+        <v>0.07519452096600787</v>
       </c>
       <c r="E15">
-        <v>0.2966878929760011</v>
+        <v>0.1223932036127806</v>
       </c>
       <c r="F15">
-        <v>0.7847354048366242</v>
+        <v>0.7413013952396454</v>
       </c>
       <c r="G15">
-        <v>0.002420062392928246</v>
+        <v>0.0007811372414421314</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6225778894997518</v>
+        <v>2.055979953218809</v>
       </c>
       <c r="L15">
-        <v>0.1901101570849022</v>
+        <v>0.4775060015125376</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.758401473946798</v>
+        <v>0.7172789340931618</v>
       </c>
       <c r="O15">
-        <v>2.637671004527476</v>
+        <v>2.015736256277251</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.101352442324156</v>
+        <v>1.465050651474627</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03542273855929068</v>
+        <v>0.07138465830127672</v>
       </c>
       <c r="E16">
-        <v>0.298029737357334</v>
+        <v>0.1234680229265113</v>
       </c>
       <c r="F16">
-        <v>0.7793406721929159</v>
+        <v>0.7068745743249849</v>
       </c>
       <c r="G16">
-        <v>0.002421600051256037</v>
+        <v>0.0007836544200680504</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.584515436737604</v>
+        <v>1.931020908188515</v>
       </c>
       <c r="L16">
-        <v>0.1816833772817148</v>
+        <v>0.4464470332326727</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.770517557127356</v>
+        <v>0.7463465849176147</v>
       </c>
       <c r="O16">
-        <v>2.630296416241407</v>
+        <v>1.939296404453444</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.087839107771657</v>
+        <v>1.409118460054259</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03463220481263818</v>
+        <v>0.06904657957608862</v>
       </c>
       <c r="E17">
-        <v>0.2988835326704109</v>
+        <v>0.1241866074571458</v>
       </c>
       <c r="F17">
-        <v>0.776153754240994</v>
+        <v>0.6861574864443156</v>
       </c>
       <c r="G17">
-        <v>0.00242256487507068</v>
+        <v>0.0007852160228462511</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5611304297209472</v>
+        <v>1.854496361796748</v>
       </c>
       <c r="L17">
-        <v>0.1765284227300157</v>
+        <v>0.4274899492065742</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.778113478175429</v>
+        <v>0.7645722228290226</v>
       </c>
       <c r="O17">
-        <v>2.626173603787862</v>
+        <v>1.893653712688831</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.080112239310893</v>
+        <v>1.377080858935045</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03417646967964316</v>
+        <v>0.06770137090254025</v>
       </c>
       <c r="E18">
-        <v>0.2993858733442973</v>
+        <v>0.1246212492666885</v>
       </c>
       <c r="F18">
-        <v>0.7743657749709314</v>
+        <v>0.6743831859365912</v>
       </c>
       <c r="G18">
-        <v>0.002423127742566948</v>
+        <v>0.0007861207478806341</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5476673742026321</v>
+        <v>1.810524562437678</v>
       </c>
       <c r="L18">
-        <v>0.1735688298654452</v>
+        <v>0.4166194616345535</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.782542372146404</v>
+        <v>0.7751966063176968</v>
       </c>
       <c r="O18">
-        <v>2.623949713144441</v>
+        <v>1.867842050938464</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.077503910538951</v>
+        <v>1.366255689571574</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03402198750725915</v>
+        <v>0.06724582758648268</v>
       </c>
       <c r="E19">
-        <v>0.299557892016697</v>
+        <v>0.1247720350733044</v>
       </c>
       <c r="F19">
-        <v>0.7737681340804983</v>
+        <v>0.6704203458536995</v>
       </c>
       <c r="G19">
-        <v>0.002423319683122333</v>
+        <v>0.000786428207196202</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5431068683436706</v>
+        <v>1.795643308818683</v>
       </c>
       <c r="L19">
-        <v>0.1725676934056111</v>
+        <v>0.4129443716405063</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.784052209538529</v>
+        <v>0.7788178465342067</v>
       </c>
       <c r="O19">
-        <v>2.623222063463459</v>
+        <v>1.859176635062283</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.089272905274157</v>
+        <v>1.41505860457994</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03471646639195569</v>
+        <v>0.06929551213897156</v>
       </c>
       <c r="E20">
-        <v>0.2987914795053754</v>
+        <v>0.1241078956552553</v>
       </c>
       <c r="F20">
-        <v>0.7764883445411925</v>
+        <v>0.6883480580121955</v>
       </c>
       <c r="G20">
-        <v>0.002422461347851623</v>
+        <v>0.0007850491145622805</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5636211144435777</v>
+        <v>1.86263793613432</v>
       </c>
       <c r="L20">
-        <v>0.1770766182729631</v>
+        <v>0.4295044823453651</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.777298677439787</v>
+        <v>0.7626173600785269</v>
       </c>
       <c r="O20">
-        <v>2.626597224075113</v>
+        <v>1.898466416927647</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.129359228140373</v>
+        <v>1.580669703069645</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03703732964712003</v>
+        <v>0.07617796875288718</v>
       </c>
       <c r="E21">
-        <v>0.2963509138919616</v>
+        <v>0.1221343737919725</v>
       </c>
       <c r="F21">
-        <v>0.7861661097759765</v>
+        <v>0.7503195268465248</v>
       </c>
       <c r="G21">
-        <v>0.002419672038439088</v>
+        <v>0.0007804926165742798</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6323938923344485</v>
+        <v>2.088288379065659</v>
       </c>
       <c r="L21">
-        <v>0.1922902721463515</v>
+        <v>0.4855566630313035</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.75532377596684</v>
+        <v>0.7098985581792898</v>
       </c>
       <c r="O21">
-        <v>2.639699046938887</v>
+        <v>2.035873944894178</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.155960670433785</v>
+        <v>1.690244533982707</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.0385447182608516</v>
+        <v>0.08067448497748586</v>
       </c>
       <c r="E22">
-        <v>0.2948559545794396</v>
+        <v>0.1210438666567537</v>
       </c>
       <c r="F22">
-        <v>0.7928921499170656</v>
+        <v>0.7922208818552292</v>
       </c>
       <c r="G22">
-        <v>0.002417919269228745</v>
+        <v>0.0007775698170777736</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6772239084157832</v>
+        <v>2.236280242345117</v>
       </c>
       <c r="L22">
-        <v>0.2022806324489039</v>
+        <v>0.5225366059601697</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.741495851183423</v>
+        <v>0.6767723276278252</v>
       </c>
       <c r="O22">
-        <v>2.649575202362314</v>
+        <v>2.130012813235339</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.141726313095944</v>
+        <v>1.631632207968579</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03774106713490966</v>
+        <v>0.07827464897080461</v>
       </c>
       <c r="E23">
-        <v>0.2956446927801348</v>
+        <v>0.1216071857196166</v>
       </c>
       <c r="F23">
-        <v>0.7892656445446278</v>
+        <v>0.7697223155857245</v>
       </c>
       <c r="G23">
-        <v>0.002418848349540759</v>
+        <v>0.0007791248778101223</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6533082110464363</v>
+        <v>2.15724024653079</v>
       </c>
       <c r="L23">
-        <v>0.1969442915197419</v>
+        <v>0.5027653933513392</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.748827201329661</v>
+        <v>0.6943273975748019</v>
       </c>
       <c r="O23">
-        <v>2.644183920945864</v>
+        <v>2.079351777191278</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.088624554159253</v>
+        <v>1.412372697606457</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.0346783756136233</v>
+        <v>0.06918297291466757</v>
       </c>
       <c r="E24">
-        <v>0.2988330609734469</v>
+        <v>0.1241434143388016</v>
       </c>
       <c r="F24">
-        <v>0.7763369385153993</v>
+        <v>0.6873572777793981</v>
       </c>
       <c r="G24">
-        <v>0.002422508127004007</v>
+        <v>0.0007851245521484607</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5624951340902555</v>
+        <v>1.858957059599618</v>
       </c>
       <c r="L24">
-        <v>0.1768287664172448</v>
+        <v>0.428593624657907</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.777666856045674</v>
+        <v>0.7635006988254602</v>
       </c>
       <c r="O24">
-        <v>2.626405249413978</v>
+        <v>1.896289261754134</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.033092745655381</v>
+        <v>1.180876898111705</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03133504879142635</v>
+        <v>0.05935947261428254</v>
       </c>
       <c r="E25">
-        <v>0.3027028442699411</v>
+        <v>0.1276898337522621</v>
       </c>
       <c r="F25">
-        <v>0.7641136249657663</v>
+        <v>0.60385766417658</v>
       </c>
       <c r="G25">
-        <v>0.002426759074490533</v>
+        <v>0.0007918474972960134</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4640584914843373</v>
+        <v>1.538791527240761</v>
       </c>
       <c r="L25">
-        <v>0.1553377387450467</v>
+        <v>0.3498276620063194</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.811065887261281</v>
+        <v>0.8434896772634326</v>
       </c>
       <c r="O25">
-        <v>2.612864642959011</v>
+        <v>1.715473008380826</v>
       </c>
     </row>
   </sheetData>
